--- a/DataConfig/Excel/account.xlsx
+++ b/DataConfig/Excel/account.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A69099-6F81-4690-826B-C0B479389E68}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20685" windowHeight="12015"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="1" r:id="rId1"/>
@@ -17,9 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>required</t>
-  </si>
-  <si>
-    <t>uint32</t>
   </si>
   <si>
     <t>string</t>
@@ -48,18 +51,16 @@
   <si>
     <t>Tony</t>
   </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="36">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,160 +87,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -313,8 +178,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,18 +200,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -353,18 +212,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="54"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -395,18 +242,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -419,36 +254,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -484,81 +295,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -579,40 +321,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="49"/>
       </top>
       <bottom style="double">
         <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,237 +411,93 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="90">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -937,172 +506,128 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="78">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="30">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="79" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="90">
+  <cellStyles count="42">
+    <cellStyle name="20% - 着色 1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="20% - 着色 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="20% - 着色 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="20% - 着色 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="20% - 着色 5 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - 着色 6 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 着色 1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="40% - 着色 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="40% - 着色 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="40% - 着色 4 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 着色 5 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="40% - 着色 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="60% - 着色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="60% - 着色 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="60% - 着色 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="60% - 着色 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="60% - 着色 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="60% - 着色 6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="标题 1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="标题 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="标题 3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="标题 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="标题 5" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="差 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="着色 2 2" xfId="5"/>
-    <cellStyle name="20% - 着色 6 2" xfId="6"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 着色 4 2" xfId="8"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="9" builtinId="39"/>
-    <cellStyle name="计算 2" xfId="10"/>
-    <cellStyle name="差" xfId="11" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
-    <cellStyle name="超链接" xfId="14" builtinId="8"/>
-    <cellStyle name="百分比" xfId="15" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
-    <cellStyle name="注释" xfId="17" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
-    <cellStyle name="标题" xfId="21" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="22" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="23" builtinId="16"/>
-    <cellStyle name="40% - 着色 3 2" xfId="24"/>
-    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="26" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="27" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="28" builtinId="44"/>
-    <cellStyle name="输出" xfId="29" builtinId="21"/>
-    <cellStyle name="40% - 着色 2 2" xfId="30"/>
-    <cellStyle name="计算" xfId="31" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
-    <cellStyle name="20% - 着色 1 2" xfId="33"/>
-    <cellStyle name="链接单元格" xfId="34" builtinId="24"/>
-    <cellStyle name="40% - 着色 5 2" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="36" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="37" builtinId="33"/>
-    <cellStyle name="汇总" xfId="38" builtinId="25"/>
-    <cellStyle name="好" xfId="39" builtinId="26"/>
-    <cellStyle name="适中" xfId="40" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="41" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="42" builtinId="29"/>
-    <cellStyle name="20% - 着色 2 2" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="44" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="46" builtinId="34"/>
-    <cellStyle name="输出 2" xfId="47"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="48" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="49" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="50" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="51" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="52" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="53" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="55" builtinId="48"/>
-    <cellStyle name="60% - 着色 6 2" xfId="56"/>
-    <cellStyle name="强调文字颜色 6" xfId="57" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="58" builtinId="51"/>
-    <cellStyle name="着色 5 2" xfId="59"/>
-    <cellStyle name="20% - 着色 3 2" xfId="60"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
-    <cellStyle name="20% - 着色 4 2" xfId="62"/>
-    <cellStyle name="着色 1 2" xfId="63"/>
-    <cellStyle name="20% - 着色 5 2" xfId="64"/>
-    <cellStyle name="40% - 着色 1 2" xfId="65"/>
-    <cellStyle name="40% - 着色 6 2" xfId="66"/>
-    <cellStyle name="60% - 着色 1 2" xfId="67"/>
-    <cellStyle name="60% - 着色 2 2" xfId="68"/>
-    <cellStyle name="60% - 着色 3 2" xfId="69"/>
-    <cellStyle name="60% - 着色 4 2" xfId="70"/>
-    <cellStyle name="60% - 着色 5 2" xfId="71"/>
-    <cellStyle name="标题 1 2" xfId="72"/>
-    <cellStyle name="标题 2 2" xfId="73"/>
-    <cellStyle name="标题 3 2" xfId="74"/>
-    <cellStyle name="标题 4 2" xfId="75"/>
-    <cellStyle name="标题 5" xfId="76"/>
-    <cellStyle name="差 2" xfId="77"/>
-    <cellStyle name="常规 2" xfId="78"/>
-    <cellStyle name="常规 3" xfId="79"/>
-    <cellStyle name="好 2" xfId="80"/>
-    <cellStyle name="汇总 2" xfId="81"/>
-    <cellStyle name="检查单元格 2" xfId="82"/>
-    <cellStyle name="警告文本 2" xfId="83"/>
-    <cellStyle name="链接单元格 2" xfId="84"/>
-    <cellStyle name="输入 2" xfId="85"/>
-    <cellStyle name="着色 3 2" xfId="86"/>
-    <cellStyle name="着色 4 2" xfId="87"/>
-    <cellStyle name="着色 6 2" xfId="88"/>
-    <cellStyle name="注释 2" xfId="89"/>
+    <cellStyle name="常规 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="常规 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="好 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="汇总 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="计算 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="检查单元格 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="警告文本 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="链接单元格 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="输出 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="输入 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="着色 1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="着色 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="着色 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="着色 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="着色 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="着色 6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="注释 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1360,26 +885,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5583333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.1083333333333" customWidth="1"/>
-    <col min="4" max="4" width="17.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:68">
+    <row r="1" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1455,66 +980,66 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
     </row>
-    <row r="2" ht="14.25" spans="2:4">
+    <row r="2" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:4">
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4" t="s">
+    <row r="4" spans="1:68" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:4">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="2:4">
+    <row r="5" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
         <v>13988888888</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:4">
+    <row r="6" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" ht="14.25" spans="2:4">
+    <row r="7" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataConfig/Excel/account.xlsx
+++ b/DataConfig/Excel/account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A69099-6F81-4690-826B-C0B479389E68}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1480C3-5E44-4B6B-B20E-EED9D2874174}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>required</t>
   </si>
@@ -49,10 +49,23 @@
     <t>电话号码</t>
   </si>
   <si>
+    <t>int32</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>Tony</t>
-  </si>
-  <si>
-    <t>int32</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户名</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌凌漆</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -894,7 +907,7 @@
   <dimension ref="A1:BP7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -902,6 +915,7 @@
     <col min="2" max="2" width="17.5546875" customWidth="1"/>
     <col min="3" max="3" width="14.109375" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
@@ -915,7 +929,9 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -982,12 +998,15 @@
     </row>
     <row r="2" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1001,6 +1020,9 @@
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:68" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1015,27 +1037,35 @@
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7">
         <v>13988888888</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="7"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="7"/>
+      <c r="E7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/DataConfig/Excel/account.xlsx
+++ b/DataConfig/Excel/account.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1480C3-5E44-4B6B-B20E-EED9D2874174}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>required</t>
   </si>
@@ -66,14 +60,22 @@
   </si>
   <si>
     <t>凌凌漆</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,24 +87,28 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -110,6 +116,7 @@
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -117,6 +124,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -124,6 +132,7 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -131,18 +140,21 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -150,12 +162,14 @@
       <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -163,6 +177,7 @@
       <sz val="13"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -170,6 +185,7 @@
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -177,18 +193,21 @@
       <sz val="18"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -590,48 +609,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="20% - 着色 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="20% - 着色 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="20% - 着色 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="20% - 着色 5 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="20% - 着色 6 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - 着色 1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="40% - 着色 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="40% - 着色 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="40% - 着色 4 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - 着色 5 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="40% - 着色 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="60% - 着色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="60% - 着色 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="60% - 着色 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="60% - 着色 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="60% - 着色 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="60% - 着色 6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="标题 1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="标题 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="标题 3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="标题 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="标题 5" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="差 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="20% - 着色 1 2" xfId="7"/>
+    <cellStyle name="20% - 着色 2 2" xfId="9"/>
+    <cellStyle name="20% - 着色 3 2" xfId="13"/>
+    <cellStyle name="20% - 着色 4 2" xfId="14"/>
+    <cellStyle name="20% - 着色 5 2" xfId="16"/>
+    <cellStyle name="20% - 着色 6 2" xfId="2"/>
+    <cellStyle name="40% - 着色 1 2" xfId="17"/>
+    <cellStyle name="40% - 着色 2 2" xfId="6"/>
+    <cellStyle name="40% - 着色 3 2" xfId="5"/>
+    <cellStyle name="40% - 着色 4 2" xfId="3"/>
+    <cellStyle name="40% - 着色 5 2" xfId="8"/>
+    <cellStyle name="40% - 着色 6 2" xfId="18"/>
+    <cellStyle name="60% - 着色 1 2" xfId="19"/>
+    <cellStyle name="60% - 着色 2 2" xfId="20"/>
+    <cellStyle name="60% - 着色 3 2" xfId="21"/>
+    <cellStyle name="60% - 着色 4 2" xfId="22"/>
+    <cellStyle name="60% - 着色 5 2" xfId="23"/>
+    <cellStyle name="60% - 着色 6 2" xfId="11"/>
+    <cellStyle name="好 2" xfId="32"/>
+    <cellStyle name="注释 2" xfId="41"/>
+    <cellStyle name="差 2" xfId="29"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="常规 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="好 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="汇总 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="计算 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="检查单元格 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="警告文本 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="链接单元格 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="输出 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="输入 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="着色 1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="着色 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="着色 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="着色 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="着色 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="着色 6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="注释 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="常规 2" xfId="30"/>
+    <cellStyle name="常规 3" xfId="31"/>
+    <cellStyle name="着色 1 2" xfId="15"/>
+    <cellStyle name="着色 2 2" xfId="1"/>
+    <cellStyle name="着色 3 2" xfId="38"/>
+    <cellStyle name="着色 4 2" xfId="39"/>
+    <cellStyle name="着色 5 2" xfId="12"/>
+    <cellStyle name="着色 6 2" xfId="40"/>
+    <cellStyle name="输入 2" xfId="37"/>
+    <cellStyle name="输出 2" xfId="10"/>
+    <cellStyle name="警告文本 2" xfId="35"/>
+    <cellStyle name="标题 1 2" xfId="24"/>
+    <cellStyle name="标题 2 2" xfId="25"/>
+    <cellStyle name="标题 3 2" xfId="26"/>
+    <cellStyle name="标题 4 2" xfId="27"/>
+    <cellStyle name="标题 5" xfId="28"/>
+    <cellStyle name="检查单元格 2" xfId="34"/>
+    <cellStyle name="汇总 2" xfId="33"/>
+    <cellStyle name="计算 2" xfId="4"/>
+    <cellStyle name="链接单元格 2" xfId="36"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -903,22 +922,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" ht="14.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -932,7 +951,9 @@
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -996,7 +1017,7 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
     </row>
-    <row r="2" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" ht="14.25">
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1030,11 @@
       <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" ht="14.25">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1023,8 +1047,11 @@
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:68" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" ht="75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1040,8 +1067,11 @@
       <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:68" ht="14.25">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -1054,14 +1084,17 @@
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="F5" s="3">
+        <v>123</v>
+      </c>
     </row>
-    <row r="6" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="7"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="7"/>

--- a/DataConfig/Excel/account.xlsx
+++ b/DataConfig/Excel/account.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAC5438-E83A-4D1E-BA43-8C2DDFF4F5F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>required</t>
   </si>
@@ -68,14 +74,30 @@
   </si>
   <si>
     <t>密码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户金额</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,86 +593,84 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="30">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="30" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1 2" xfId="7"/>
-    <cellStyle name="20% - 着色 2 2" xfId="9"/>
-    <cellStyle name="20% - 着色 3 2" xfId="13"/>
-    <cellStyle name="20% - 着色 4 2" xfId="14"/>
-    <cellStyle name="20% - 着色 5 2" xfId="16"/>
-    <cellStyle name="20% - 着色 6 2" xfId="2"/>
-    <cellStyle name="40% - 着色 1 2" xfId="17"/>
-    <cellStyle name="40% - 着色 2 2" xfId="6"/>
-    <cellStyle name="40% - 着色 3 2" xfId="5"/>
-    <cellStyle name="40% - 着色 4 2" xfId="3"/>
-    <cellStyle name="40% - 着色 5 2" xfId="8"/>
-    <cellStyle name="40% - 着色 6 2" xfId="18"/>
-    <cellStyle name="60% - 着色 1 2" xfId="19"/>
-    <cellStyle name="60% - 着色 2 2" xfId="20"/>
-    <cellStyle name="60% - 着色 3 2" xfId="21"/>
-    <cellStyle name="60% - 着色 4 2" xfId="22"/>
-    <cellStyle name="60% - 着色 5 2" xfId="23"/>
-    <cellStyle name="60% - 着色 6 2" xfId="11"/>
-    <cellStyle name="好 2" xfId="32"/>
-    <cellStyle name="注释 2" xfId="41"/>
-    <cellStyle name="差 2" xfId="29"/>
+    <cellStyle name="20% - 着色 1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 着色 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 着色 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 着色 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 着色 5 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 着色 6 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 着色 1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 着色 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - 着色 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 着色 4 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - 着色 5 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - 着色 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - 着色 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - 着色 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - 着色 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - 着色 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - 着色 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - 着色 6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="标题 1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="标题 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="标题 3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="标题 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="标题 5" xfId="28" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="差 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="30"/>
-    <cellStyle name="常规 3" xfId="31"/>
-    <cellStyle name="着色 1 2" xfId="15"/>
-    <cellStyle name="着色 2 2" xfId="1"/>
-    <cellStyle name="着色 3 2" xfId="38"/>
-    <cellStyle name="着色 4 2" xfId="39"/>
-    <cellStyle name="着色 5 2" xfId="12"/>
-    <cellStyle name="着色 6 2" xfId="40"/>
-    <cellStyle name="输入 2" xfId="37"/>
-    <cellStyle name="输出 2" xfId="10"/>
-    <cellStyle name="警告文本 2" xfId="35"/>
-    <cellStyle name="标题 1 2" xfId="24"/>
-    <cellStyle name="标题 2 2" xfId="25"/>
-    <cellStyle name="标题 3 2" xfId="26"/>
-    <cellStyle name="标题 4 2" xfId="27"/>
-    <cellStyle name="标题 5" xfId="28"/>
-    <cellStyle name="检查单元格 2" xfId="34"/>
-    <cellStyle name="汇总 2" xfId="33"/>
-    <cellStyle name="计算 2" xfId="4"/>
-    <cellStyle name="链接单元格 2" xfId="36"/>
+    <cellStyle name="常规 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="常规 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="好 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="汇总 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="计算 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="检查单元格 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="警告文本 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="链接单元格 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="输出 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="输入 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="着色 1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="着色 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="着色 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="着色 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="着色 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="着色 6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="注释 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -922,183 +942,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="17.44140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="14.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="12"/>
-      <c r="BG1" s="12"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="7"/>
+      <c r="BG1" s="7"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
     </row>
-    <row r="2" spans="1:68" ht="14.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B5" s="12">
         <v>1</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>13988888888</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1">
+        <v>123</v>
+      </c>
+      <c r="G5" s="1">
+        <v>100000</v>
+      </c>
     </row>
-    <row r="3" spans="1:68" ht="14.25">
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
+    <row r="6" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="1"/>
     </row>
-    <row r="4" spans="1:68" ht="75" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:68" ht="14.25">
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7">
-        <v>13988888888</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:68" ht="14.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:68" ht="14.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="3"/>
+    <row r="7" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/DataConfig/Excel/account.xlsx
+++ b/DataConfig/Excel/account.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\PaymentAppSimulator\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAC5438-E83A-4D1E-BA43-8C2DDFF4F5F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047DFC35-84CA-475F-B885-3681C15A1A7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="1" r:id="rId1"/>
@@ -85,11 +85,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>float</t>
+    <t>string</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
+    <t>double</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -591,40 +591,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="30" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="30">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="30" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -946,19 +945,17 @@
   <dimension ref="A1:BP7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="2" width="17.44140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="8"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
@@ -1051,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -1060,17 +1057,17 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1084,30 +1081,30 @@
       </c>
     </row>
     <row r="4" spans="1:68" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1127,15 +1124,15 @@
       </c>
     </row>
     <row r="6" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:68" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="12"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="1"/>
     </row>
   </sheetData>

--- a/DataConfig/Excel/account.xlsx
+++ b/DataConfig/Excel/account.xlsx
@@ -111,8 +111,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -144,6 +144,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -151,6 +158,94 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -158,44 +253,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,132 +290,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -354,7 +335,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -378,6 +359,25 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="50">
     <fill>
@@ -394,31 +394,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,55 +598,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,127 +646,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,43 +658,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,6 +681,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -702,23 +767,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,8 +776,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,6 +808,30 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,23 +854,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,42 +864,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,50 +880,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,268 +894,268 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="47" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1204,9 +1204,9 @@
     <cellStyle name="着色 2 2" xfId="5"/>
     <cellStyle name="20% - 着色 6 2" xfId="6"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 着色 4 2" xfId="8"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
     <cellStyle name="计算 2" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="10" builtinId="39"/>
+    <cellStyle name="40% - 着色 4 2" xfId="10"/>
     <cellStyle name="差" xfId="11" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
@@ -1242,8 +1242,8 @@
     <cellStyle name="20% - 着色 2 2" xfId="43"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="44" builtinId="30"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
-    <cellStyle name="输出 2" xfId="46"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="47" builtinId="34"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="46" builtinId="34"/>
+    <cellStyle name="输出 2" xfId="47"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="48" builtinId="35"/>
     <cellStyle name="强调文字颜色 3" xfId="49" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="50" builtinId="41"/>
@@ -1251,11 +1251,11 @@
     <cellStyle name="40% - 强调文字颜色 4" xfId="52" builtinId="43"/>
     <cellStyle name="强调文字颜色 5" xfId="53" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="60% - 着色 6 2" xfId="55"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="56" builtinId="48"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="55" builtinId="48"/>
+    <cellStyle name="60% - 着色 6 2" xfId="56"/>
     <cellStyle name="强调文字颜色 6" xfId="57" builtinId="49"/>
-    <cellStyle name="着色 5 2" xfId="58"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="59" builtinId="51"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="58" builtinId="51"/>
+    <cellStyle name="着色 5 2" xfId="59"/>
     <cellStyle name="20% - 着色 3 2" xfId="60"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
     <cellStyle name="20% - 着色 4 2" xfId="62"/>
@@ -1557,7 +1557,7 @@
   <dimension ref="A1:BQ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1758,7 +1758,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="3">
-        <v>13988888888</v>
+        <v>18588880101</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>24</v>
@@ -1781,7 +1781,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="3">
-        <v>13988888888</v>
+        <v>13724880000</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>28</v>

--- a/DataConfig/Excel/account.xlsx
+++ b/DataConfig/Excel/account.xlsx
@@ -85,7 +85,7 @@
     <t>qwertyuiop</t>
   </si>
   <si>
-    <t>Abel</t>
+    <t>abel</t>
   </si>
   <si>
     <t>亚伯</t>
@@ -97,7 +97,7 @@
     <t>back10011</t>
   </si>
   <si>
-    <t>Alva</t>
+    <t>alva</t>
   </si>
   <si>
     <t>阿尔瓦</t>
@@ -111,8 +111,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -144,7 +144,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,6 +152,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,67 +181,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -251,6 +230,128 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -261,123 +362,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="50">
     <fill>
@@ -394,31 +394,217 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,109 +616,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,37 +640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,43 +652,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,37 +664,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,6 +681,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -708,28 +723,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color indexed="63"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,50 +771,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,6 +795,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -823,15 +832,6 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,6 +853,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color indexed="49"/>
@@ -863,19 +874,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
+      <bottom style="thick">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,232 +894,232 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1128,34 +1128,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1204,9 +1204,9 @@
     <cellStyle name="着色 2 2" xfId="5"/>
     <cellStyle name="20% - 着色 6 2" xfId="6"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="计算 2" xfId="9"/>
-    <cellStyle name="40% - 着色 4 2" xfId="10"/>
+    <cellStyle name="40% - 着色 4 2" xfId="8"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="9" builtinId="39"/>
+    <cellStyle name="计算 2" xfId="10"/>
     <cellStyle name="差" xfId="11" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
@@ -1557,7 +1557,7 @@
   <dimension ref="A1:BQ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>

--- a/DataConfig/Excel/account.xlsx
+++ b/DataConfig/Excel/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595"/>
+    <workbookView windowWidth="20745" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>required</t>
   </si>
@@ -49,6 +49,9 @@
     <t>money</t>
   </si>
   <si>
+    <t>gold</t>
+  </si>
+  <si>
     <t>账户表</t>
   </si>
   <si>
@@ -70,7 +73,10 @@
     <t>密码</t>
   </si>
   <si>
-    <t>账户金额</t>
+    <t>账户余额</t>
+  </si>
+  <si>
+    <t>账户黄金</t>
   </si>
   <si>
     <t>deepblue</t>
@@ -113,8 +119,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -144,12 +150,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -159,14 +173,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,21 +187,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,38 +219,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,53 +269,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <sz val="13"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -327,36 +373,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -366,18 +384,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="50">
     <fill>
@@ -394,115 +400,223 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,85 +634,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,67 +658,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,63 +687,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -775,7 +724,66 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="49"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,10 +806,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color indexed="49"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,21 +825,6 @@
       </top>
       <bottom style="double">
         <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,11 +846,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color indexed="49"/>
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,8 +874,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,214 +900,217 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1110,52 +1119,49 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1204,9 +1210,9 @@
     <cellStyle name="着色 2 2" xfId="5"/>
     <cellStyle name="20% - 着色 6 2" xfId="6"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 着色 4 2" xfId="8"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="9" builtinId="39"/>
-    <cellStyle name="计算 2" xfId="10"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="计算 2" xfId="9"/>
+    <cellStyle name="40% - 着色 4 2" xfId="10"/>
     <cellStyle name="差" xfId="11" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
@@ -1557,20 +1563,20 @@
   <dimension ref="A1:BQ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="17.4416666666667" customWidth="1"/>
     <col min="3" max="3" width="14.1083333333333" customWidth="1"/>
     <col min="4" max="5" width="17.4416666666667" customWidth="1"/>
     <col min="6" max="6" width="16.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="13.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="16.5583333333333" customWidth="1"/>
+    <col min="8" max="9" width="16.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" ht="14.25" spans="1:69">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1593,7 +1599,9 @@
       <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="8"/>
@@ -1655,7 +1663,7 @@
       <c r="BP1" s="1"/>
       <c r="BQ1" s="1"/>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" ht="14.25" spans="2:9">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1677,8 +1685,11 @@
       <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" ht="14.25" spans="2:9">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1700,100 +1711,115 @@
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:8">
+    <row r="4" ht="75" customHeight="1" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" ht="14.25" spans="2:9">
       <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3">
         <v>13988888888</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
       </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" ht="14.25" spans="2:9">
       <c r="B6" s="7">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3">
         <v>18588880101</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="3">
         <v>12000</v>
       </c>
+      <c r="I6" s="3">
+        <v>4212.2</v>
+      </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" ht="14.25" spans="2:9">
       <c r="B7" s="7">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3">
         <v>13724880000</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3">
         <v>970425</v>
       </c>
       <c r="H7" s="3">
         <v>800</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
